--- a/HumanTesting.xlsx
+++ b/HumanTesting.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4114F/EEE4114F-PRJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1DE88-3523-9549-9F97-14C6E617E0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D884D-5E8B-7642-967B-8B180F9814D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2ED6FAEF-8B78-8349-A179-90A8B89A861E}"/>
+    <workbookView xWindow="-28800" yWindow="1940" windowWidth="28800" windowHeight="18000" xr2:uid="{2ED6FAEF-8B78-8349-A179-90A8B89A861E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$20:$B$24</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$O$20:$O$24</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>BB</t>
   </si>
@@ -75,6 +79,30 @@
   </si>
   <si>
     <t>Audio</t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t>True Negatives</t>
+  </si>
+  <si>
+    <t>Total True Positives</t>
+  </si>
+  <si>
+    <t>Total False Positives</t>
+  </si>
+  <si>
+    <t>Total True Negatives</t>
+  </si>
+  <si>
+    <t>Total False Negatives</t>
+  </si>
+  <si>
+    <t>% accuracy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -116,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -128,6 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,15 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E9649-1E19-A44B-A598-5BCC7B1CA9C2}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -995,7 +1026,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>11</v>
@@ -1010,9 +1041,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1044,8 +1075,17 @@
       <c r="L19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1053,182 +1093,1076 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
+        <f>_xlfn.BITAND(C3, C11)</f>
         <v>0</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" ref="D20:L20" si="0">_xlfn.BITAND(D3, D11)</f>
         <v>0</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f>SUM(C20:L20)</f>
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>5-M20</f>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f>M20/5*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" ref="C21:L21" si="1">_xlfn.BITAND(C4, C12)</f>
         <v>0</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:M24" si="2">SUM(C21:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" ref="N21:N24" si="3">5-M21</f>
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O33" si="4">M21/5*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" ref="C22:L22" si="5">_xlfn.BITAND(C5, C13)</f>
         <v>0</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" ref="C23:L23" si="6">_xlfn.BITAND(C6, C14)</f>
         <v>0</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <f t="shared" ref="C24:L24" si="7">_xlfn.BITAND(C7, C15)</f>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <f>SUM(C20:C24)/SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:K25" si="8">SUM(D20:D24)/SUM(D3:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L25" s="1">
+        <f>SUM(L20:L24)/SUM(L3:L7)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M25" s="1">
+        <f>SUM(M20:M24)</f>
+        <v>6</v>
+      </c>
+      <c r="N25" s="1">
+        <f>SUM(N20:N24)</f>
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <f>M25/25*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f>--NOT(_xlfn.BITOR(C3,C11))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f>--NOT(_xlfn.BITOR(D3,D11))</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:L28" si="9">--NOT(_xlfn.BITOR(E3,E11))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
+        <f>SUM(C28:L28)</f>
+        <v>5</v>
+      </c>
+      <c r="N28" s="5">
+        <f>5-M28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:L29" si="10">--NOT(_xlfn.BITOR(C4,C12))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" ref="M29:M32" si="11">SUM(C29:L29)</f>
+        <v>3</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" ref="N29:N32" si="12">5-M29</f>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:L30" si="13">--NOT(_xlfn.BITOR(C5,C13))</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:L31" si="14">--NOT(_xlfn.BITOR(C6,C14))</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:L32" si="15">--NOT(_xlfn.BITOR(C7,C15))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <f>SUM(C28:C32)/(5-SUM(C3:C7))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33:I33" si="16">SUM(D28:D32)/(5-SUM(D3:D7))</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <f>SUM(J28:J32)/(5-SUM(J3:J7))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" ref="K33" si="17">SUM(K28:K32)/(5-SUM(K3:K7))</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ref="L33" si="18">SUM(L28:L32)/(5-SUM(L3:L7))</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <f>SUM(M28:M32)</f>
+        <v>19</v>
+      </c>
+      <c r="N33" s="1">
+        <f>SUM(N28:N32)</f>
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <f>M33/25*100</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9</v>
+      </c>
+      <c r="L35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <f>--(C3=C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:L36" si="19">--(D3=D11)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ref="C37:L40" si="20">--(C4=C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <f>SUM(C36:C40)/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:J41" si="21">SUM(D36:D40)/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="1">
+        <f>SUM(K36:K40)/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" ref="L41" si="22">SUM(L36:L40)/5</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="A3:A7"/>
